--- a/new_data/TWII/TWII_2012/TWII_2012.xlsx
+++ b/new_data/TWII/TWII_2012/TWII_2012.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Time_Series_Research\new_data\TWII\TWII_2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD3ADF8-6A9A-4373-B70D-1C8C3F984C93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4F11B1-96A3-4C42-A420-DC1EA50C1515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Volume</t>
   </si>
@@ -127,10 +127,6 @@
   </si>
   <si>
     <t>PSY_24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -146,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +166,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Wingdings 2"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -300,6 +289,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -309,12 +309,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyFont="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,16 +338,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +633,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -647,43 +643,46 @@
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="9"/>
-    <col min="8" max="8" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="9"/>
+    <col min="7" max="7" width="9.140625" style="8"/>
+    <col min="8" max="8" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>2</v>
       </c>
     </row>
@@ -691,33 +690,37 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="9">
+        <v>28</v>
+      </c>
+      <c r="I4" s="8">
         <v>4</v>
       </c>
     </row>
@@ -725,14 +728,20 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>5</v>
       </c>
       <c r="K5" t="s">
@@ -743,18 +752,20 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="14" t="s">
-        <v>28</v>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="7">
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>6</v>
       </c>
     </row>
@@ -762,13 +773,16 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>7</v>
       </c>
     </row>
@@ -776,21 +790,22 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="14" t="s">
-        <v>28</v>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="7">
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>8</v>
       </c>
     </row>
@@ -798,19 +813,20 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="14" t="s">
-        <v>28</v>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="7">
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>9</v>
       </c>
     </row>
@@ -818,14 +834,16 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>10</v>
       </c>
     </row>
@@ -833,14 +851,20 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="14"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>11</v>
       </c>
     </row>
@@ -848,17 +872,20 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="14" t="s">
-        <v>28</v>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="7">
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>12</v>
       </c>
     </row>
@@ -866,17 +893,22 @@
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="14" t="s">
-        <v>28</v>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="7">
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>13</v>
       </c>
     </row>
@@ -884,18 +916,22 @@
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="14" t="s">
-        <v>28</v>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="7">
+        <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>14</v>
       </c>
     </row>
@@ -903,14 +939,22 @@
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="14"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>15</v>
       </c>
     </row>
@@ -918,14 +962,20 @@
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="14"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>16</v>
       </c>
     </row>
@@ -933,13 +983,16 @@
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>17</v>
       </c>
     </row>
@@ -947,13 +1000,16 @@
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>18</v>
       </c>
     </row>
@@ -961,12 +1017,16 @@
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>19</v>
       </c>
     </row>
@@ -974,12 +1034,16 @@
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>20</v>
       </c>
     </row>
@@ -987,13 +1051,16 @@
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>21</v>
       </c>
     </row>
@@ -1001,12 +1068,16 @@
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="8">
         <v>22</v>
       </c>
     </row>
@@ -1014,21 +1085,26 @@
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>28</v>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>23</v>
       </c>
     </row>
@@ -1036,32 +1112,32 @@
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>28</v>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
